--- a/ตัวอย่างExcel import/Sit.xlsx
+++ b/ตัวอย่างExcel import/Sit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\testFlask\testFlask\ตัวอย่างExcel import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TrueAcademy\QaWeb\ตัวอย่างExcel import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85D5041C-FA03-4D3E-9216-9F4305EA2E68}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E45D640-D8EE-481E-AF6B-2450F75A7593}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7389264F-97A2-4D4C-B2D9-9CD1495CD2AE}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Pattern Name</t>
   </si>
@@ -54,19 +51,25 @@
     <t>test Env</t>
   </si>
   <si>
-    <t>Current User</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
     <t>remark</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Enable</t>
+    <t>dddd</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>kkkk</t>
+  </si>
+  <si>
+    <t>rrr</t>
+  </si>
+  <si>
+    <t>hhhh</t>
+  </si>
+  <si>
+    <t>ccvv</t>
   </si>
 </sst>
 </file>
@@ -109,9 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -429,12 +433,17 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="2"/>
+    <col min="7" max="8" width="8.796875" style="2"/>
+    <col min="11" max="11" width="8.796875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,22 +465,28 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="C2">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
